--- a/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams_headlines.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="671">
   <si>
     <t>n</t>
   </si>
@@ -30,33 +30,27 @@
     <t>ngram_count</t>
   </si>
   <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>wants</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
     <t>soros</t>
   </si>
   <si>
@@ -78,24 +72,12 @@
     <t>joe</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>climate</t>
   </si>
   <si>
     <t>biden</t>
   </si>
   <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>york</t>
   </si>
   <si>
@@ -123,12 +105,6 @@
     <t>whistleblowers</t>
   </si>
   <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
     <t>warn</t>
   </si>
   <si>
@@ -144,15 +120,9 @@
     <t>veterans</t>
   </si>
   <si>
-    <t>ve</t>
-  </si>
-  <si>
     <t>unprecedented</t>
   </si>
   <si>
-    <t>under</t>
-  </si>
-  <si>
     <t>ukrainian</t>
   </si>
   <si>
@@ -180,6 +150,36 @@
     <t>tj</t>
   </si>
   <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>taxpayers</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
     <t>new deal</t>
   </si>
   <si>
@@ -204,9 +204,6 @@
     <t>your name</t>
   </si>
   <si>
-    <t>you to</t>
-  </si>
-  <si>
     <t>you agree</t>
   </si>
   <si>
@@ -225,19 +222,22 @@
     <t>with treason</t>
   </si>
   <si>
-    <t>with the</t>
-  </si>
-  <si>
     <t>wisconsin they</t>
   </si>
   <si>
     <t>wireless devices</t>
   </si>
   <si>
-    <t>why isn</t>
-  </si>
-  <si>
-    <t>why does</t>
+    <t>who wants</t>
+  </si>
+  <si>
+    <t>who broke</t>
+  </si>
+  <si>
+    <t>whistleblowers into</t>
+  </si>
+  <si>
+    <t>while real</t>
   </si>
   <si>
     <t>we need blue</t>
@@ -279,12 +279,6 @@
     <t>wireless devices such</t>
   </si>
   <si>
-    <t>why isn the</t>
-  </si>
-  <si>
-    <t>why does this</t>
-  </si>
-  <si>
     <t>who wants donald</t>
   </si>
   <si>
@@ -300,6 +294,12 @@
     <t>was actually facing</t>
   </si>
   <si>
+    <t>warn emf from</t>
+  </si>
+  <si>
+    <t>wants to ban</t>
+  </si>
+  <si>
     <t>we need blue new</t>
   </si>
   <si>
@@ -420,45 +420,21 @@
     <t>wants to ban 9mm pistols</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>on</t>
+    <t>coronavirus</t>
   </si>
   <si>
     <t>covid</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
     <t>may</t>
   </si>
   <si>
     <t>bill</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>vaccine</t>
   </si>
   <si>
@@ -471,42 +447,21 @@
     <t>votes</t>
   </si>
   <si>
-    <t>up</t>
-  </si>
-  <si>
     <t>people</t>
   </si>
   <si>
     <t>michigan</t>
   </si>
   <si>
-    <t>his</t>
-  </si>
-  <si>
     <t>george</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
-    <t>they</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
     <t>says</t>
   </si>
   <si>
@@ -525,18 +480,9 @@
     <t>breaking</t>
   </si>
   <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>will</t>
-  </si>
-  <si>
     <t>voters</t>
   </si>
   <si>
@@ -549,7 +495,58 @@
     <t>state</t>
   </si>
   <si>
-    <t>over</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>obama</t>
+  </si>
+  <si>
+    <t>nancy</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>gates</t>
+  </si>
+  <si>
+    <t>floyd</t>
+  </si>
+  <si>
+    <t>democrats</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>ballots</t>
+  </si>
+  <si>
+    <t>whitmer</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>supporters</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>riots</t>
   </si>
   <si>
     <t>covid 19</t>
@@ -603,6 +600,12 @@
     <t>to create</t>
   </si>
   <si>
+    <t>test rate</t>
+  </si>
+  <si>
+    <t>swing state</t>
+  </si>
+  <si>
     <t>tests positive for</t>
   </si>
   <si>
@@ -651,9 +654,6 @@
     <t>you re fired</t>
   </si>
   <si>
-    <t>you don have</t>
-  </si>
-  <si>
     <t>york times editor</t>
   </si>
   <si>
@@ -663,6 +663,9 @@
     <t>yells at people</t>
   </si>
   <si>
+    <t>would impact 74</t>
+  </si>
+  <si>
     <t>trying to include abortion</t>
   </si>
   <si>
@@ -678,9 +681,6 @@
     <t>you re fired on</t>
   </si>
   <si>
-    <t>you don have to</t>
-  </si>
-  <si>
     <t>york times editor admits</t>
   </si>
   <si>
@@ -723,6 +723,9 @@
     <t>with nuclear missile trump</t>
   </si>
   <si>
+    <t>with multiple confirmed patients</t>
+  </si>
+  <si>
     <t>trying to include abortion funding</t>
   </si>
   <si>
@@ -732,9 +735,6 @@
     <t>you re fired on the</t>
   </si>
   <si>
-    <t>you don have to be</t>
-  </si>
-  <si>
     <t>york times editor admits biden</t>
   </si>
   <si>
@@ -783,57 +783,33 @@
     <t>with election software glitch company</t>
   </si>
   <si>
+    <t>with democratic congressman sponsor of</t>
+  </si>
+  <si>
     <t>vaccinated</t>
   </si>
   <si>
-    <t>after</t>
-  </si>
-  <si>
     <t>pfizer</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>cdc</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
     <t>deaths</t>
   </si>
   <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
     <t>military</t>
   </si>
   <si>
-    <t>were</t>
-  </si>
-  <si>
     <t>vaccines</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>death</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>before</t>
-  </si>
-  <si>
     <t>women</t>
   </si>
   <si>
@@ -849,13 +825,49 @@
     <t>president</t>
   </si>
   <si>
-    <t>in the</t>
-  </si>
-  <si>
-    <t>from the</t>
-  </si>
-  <si>
-    <t>to be</t>
+    <t>fully</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>scott</t>
+  </si>
+  <si>
+    <t>rick</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>arrests</t>
+  </si>
+  <si>
+    <t>vaccinations</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>likely</t>
   </si>
   <si>
     <t>sen rick</t>
@@ -864,9 +876,6 @@
     <t>rick scott</t>
   </si>
   <si>
-    <t>of the</t>
-  </si>
-  <si>
     <t>military arrests</t>
   </si>
   <si>
@@ -891,18 +900,30 @@
     <t>vaccinated people</t>
   </si>
   <si>
-    <t>their own</t>
-  </si>
-  <si>
-    <t>out of</t>
-  </si>
-  <si>
     <t>navy seals</t>
   </si>
   <si>
     <t>millions of</t>
   </si>
   <si>
+    <t>inflation crisis</t>
+  </si>
+  <si>
+    <t>gavin newsom</t>
+  </si>
+  <si>
+    <t>election integrity</t>
+  </si>
+  <si>
+    <t>biden is</t>
+  </si>
+  <si>
+    <t>absentee ballots</t>
+  </si>
+  <si>
+    <t>19 vaccines</t>
+  </si>
+  <si>
     <t>sen rick scott</t>
   </si>
   <si>
@@ -1086,18 +1107,12 @@
     <t>space</t>
   </si>
   <si>
-    <t>into</t>
-  </si>
-  <si>
     <t>research</t>
   </si>
   <si>
     <t>national</t>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
@@ -1113,24 +1128,51 @@
     <t>putin</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>million</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>americans</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>whistleblower</t>
+  </si>
+  <si>
+    <t>whilst</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
     <t>in ukraine</t>
   </si>
   <si>
@@ -1140,15 +1182,9 @@
     <t>19 vaccine</t>
   </si>
   <si>
-    <t>you can</t>
-  </si>
-  <si>
     <t>whilst you</t>
   </si>
   <si>
-    <t>what in</t>
-  </si>
-  <si>
     <t>vaccinated are</t>
   </si>
   <si>
@@ -1179,15 +1215,21 @@
     <t>in 2021</t>
   </si>
   <si>
+    <t>first man</t>
+  </si>
+  <si>
+    <t>distracted by</t>
+  </si>
+  <si>
+    <t>covid vaccines</t>
+  </si>
+  <si>
     <t>vaccinated are developing</t>
   </si>
   <si>
     <t>yuri gagarin the</t>
   </si>
   <si>
-    <t>yours when they</t>
-  </si>
-  <si>
     <t>your government quietly</t>
   </si>
   <si>
@@ -1200,18 +1242,9 @@
     <t>you were distracted</t>
   </si>
   <si>
-    <t>you ve been</t>
-  </si>
-  <si>
     <t>you swallow it</t>
   </si>
   <si>
-    <t>you can do</t>
-  </si>
-  <si>
-    <t>you can be</t>
-  </si>
-  <si>
     <t>york wetlands with</t>
   </si>
   <si>
@@ -1236,12 +1269,21 @@
     <t>with the stroke</t>
   </si>
   <si>
+    <t>with significantly reduced</t>
+  </si>
+  <si>
+    <t>with population under</t>
+  </si>
+  <si>
+    <t>with pcr test</t>
+  </si>
+  <si>
+    <t>with new economic</t>
+  </si>
+  <si>
     <t>yuri gagarin the first</t>
   </si>
   <si>
-    <t>yours when they re</t>
-  </si>
-  <si>
     <t>your government quietly confirmed</t>
   </si>
   <si>
@@ -1257,9 +1299,6 @@
     <t>you ve been distracted</t>
   </si>
   <si>
-    <t>you can do to</t>
-  </si>
-  <si>
     <t>you can be vaccinated</t>
   </si>
   <si>
@@ -1296,12 +1335,15 @@
     <t>with new economic system</t>
   </si>
   <si>
+    <t>with climate science center</t>
+  </si>
+  <si>
+    <t>wisconsin elementary school students</t>
+  </si>
+  <si>
     <t>yuri gagarin the first man</t>
   </si>
   <si>
-    <t>yours when they re in</t>
-  </si>
-  <si>
     <t>your government quietly confirmed the</t>
   </si>
   <si>
@@ -1356,52 +1398,85 @@
     <t>wins 100 votes from town</t>
   </si>
   <si>
+    <t>will have microchip that transmits</t>
+  </si>
+  <si>
     <t>wef</t>
   </si>
   <si>
-    <t>gates</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
-    <t>about</t>
-  </si>
-  <si>
     <t>shots</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>now</t>
-  </si>
-  <si>
     <t>mrna</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>funded</t>
   </si>
   <si>
-    <t>found</t>
-  </si>
-  <si>
     <t>blood</t>
   </si>
   <si>
-    <t>americans</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>will be</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>scientists</t>
+  </si>
+  <si>
+    <t>schwab</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>reveals</t>
+  </si>
+  <si>
+    <t>pilots</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>klaus</t>
+  </si>
+  <si>
+    <t>fema</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+  </si>
+  <si>
+    <t>estimated</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>due</t>
   </si>
   <si>
     <t>vaccines are</t>
@@ -1431,9 +1506,6 @@
     <t>un says</t>
   </si>
   <si>
-    <t>to the</t>
-  </si>
-  <si>
     <t>to sex</t>
   </si>
   <si>
@@ -1446,6 +1518,15 @@
     <t>seals save</t>
   </si>
   <si>
+    <t>people who</t>
+  </si>
+  <si>
+    <t>of people</t>
+  </si>
+  <si>
+    <t>of aluminum</t>
+  </si>
+  <si>
     <t>will be excluded</t>
   </si>
   <si>
@@ -1626,12 +1707,6 @@
     <t>world prediction was for today</t>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>schwab</t>
-  </si>
-  <si>
     <t>roads</t>
   </si>
   <si>
@@ -1641,12 +1716,6 @@
     <t>presidential</t>
   </si>
   <si>
-    <t>klaus</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
     <t>global</t>
   </si>
   <si>
@@ -1656,9 +1725,6 @@
     <t>donald</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -1701,9 +1767,6 @@
     <t>trans</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
     <t>tillis</t>
   </si>
   <si>
@@ -1719,9 +1782,6 @@
     <t>suppressed</t>
   </si>
   <si>
-    <t>supply</t>
-  </si>
-  <si>
     <t>suggesting</t>
   </si>
   <si>
@@ -1729,6 +1789,15 @@
   </si>
   <si>
     <t>stormy</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sparks</t>
   </si>
   <si>
     <t>new york</t>
@@ -2345,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2356,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2367,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2378,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2389,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2400,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2521,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2532,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2543,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2554,7 +2623,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2565,7 +2634,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3799,7 +3868,7 @@
         <v>133</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3807,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3818,10 +3887,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3829,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3840,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3851,10 +3920,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3862,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3873,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3884,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3895,10 +3964,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3906,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3917,10 +3986,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3928,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3939,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3950,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3961,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3972,10 +4041,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3983,10 +4052,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3994,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4005,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4016,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4027,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4038,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4049,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4060,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4071,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4082,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4093,10 +4162,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4104,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4118,7 +4187,7 @@
         <v>158</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4129,7 +4198,7 @@
         <v>159</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4140,7 +4209,7 @@
         <v>160</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4151,7 +4220,7 @@
         <v>161</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4162,7 +4231,7 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4173,7 +4242,7 @@
         <v>163</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4184,7 +4253,7 @@
         <v>164</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4195,7 +4264,7 @@
         <v>165</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4206,7 +4275,7 @@
         <v>166</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4217,7 +4286,7 @@
         <v>167</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4228,7 +4297,7 @@
         <v>168</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4239,7 +4308,7 @@
         <v>169</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4247,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4261,7 +4330,7 @@
         <v>170</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4272,7 +4341,7 @@
         <v>171</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4280,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4291,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4305,7 +4374,7 @@
         <v>173</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4316,7 +4385,7 @@
         <v>174</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4324,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4335,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4346,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -4368,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4379,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4390,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4401,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4412,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -4423,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4434,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4445,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4456,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4467,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4478,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4489,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4500,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4511,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4522,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4533,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4544,7 +4613,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4555,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4566,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4577,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4588,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4599,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -4610,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -4621,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -4632,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -4643,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -4654,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -4665,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4676,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -4687,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -4698,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -4709,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -4720,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4731,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4742,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4753,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4764,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4775,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4786,7 +4855,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -4797,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -4808,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -4819,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -4830,7 +4899,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4841,7 +4910,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4852,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4863,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4874,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4885,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4896,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4907,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4918,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4929,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -4940,7 +5009,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4951,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4962,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4973,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4984,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4995,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5006,7 +5075,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -5017,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -5028,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5039,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5050,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5061,7 +5130,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5072,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5083,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5094,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5105,7 +5174,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5116,7 +5185,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5127,7 +5196,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5138,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5149,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5160,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5171,7 +5240,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5182,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5193,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5204,7 +5273,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5215,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -5250,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5261,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5272,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -5283,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -5294,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -5305,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -5316,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -5327,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5338,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5349,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5360,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5371,10 +5440,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5382,10 +5451,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5393,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5404,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5415,10 +5484,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5426,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5437,10 +5506,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5448,10 +5517,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5459,10 +5528,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5470,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5481,10 +5550,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5492,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5503,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5514,10 +5583,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5525,10 +5594,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5536,10 +5605,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5547,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5558,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5572,7 +5641,7 @@
         <v>169</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5580,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5591,10 +5660,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5602,10 +5671,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5613,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5624,10 +5693,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5635,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5646,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5657,10 +5726,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5668,10 +5737,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5679,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5690,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5701,10 +5770,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5712,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5723,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5734,10 +5803,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5745,10 +5814,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5756,10 +5825,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5767,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5778,10 +5847,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5789,10 +5858,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5800,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52">
         <v>14</v>
@@ -5811,10 +5880,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5822,10 +5891,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5833,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5844,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5855,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -5866,10 +5935,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5877,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5888,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5899,10 +5968,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5910,10 +5979,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5921,10 +5990,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5932,10 +6001,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5943,10 +6012,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5954,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -5965,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -5976,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -5987,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5998,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6009,7 +6078,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6020,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -6031,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6042,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6053,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -6064,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6075,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6086,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6097,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6108,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6119,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -6130,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -6141,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -6152,7 +6221,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6163,7 +6232,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -6174,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6185,7 +6254,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6196,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -6207,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -6218,7 +6287,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -6229,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -6240,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -6251,7 +6320,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -6262,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6273,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6284,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -6295,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6306,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6317,7 +6386,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6328,7 +6397,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6339,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6350,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6361,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6372,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6383,7 +6452,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6394,7 +6463,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6405,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6416,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6427,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6438,7 +6507,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6449,7 +6518,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6460,7 +6529,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -6471,7 +6540,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6482,7 +6551,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6493,7 +6562,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6504,7 +6573,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6515,7 +6584,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6526,7 +6595,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6537,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6548,7 +6617,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -6559,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6570,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -6581,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -6592,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -6603,7 +6672,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -6614,7 +6683,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -6625,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -6636,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -6647,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -6658,7 +6727,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6669,7 +6738,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -6704,10 +6773,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6715,10 +6784,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6726,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6737,10 +6806,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6748,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6759,10 +6828,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6770,10 +6839,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6781,10 +6850,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6792,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6803,10 +6872,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6814,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6825,10 +6894,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6836,10 +6905,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6847,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6858,10 +6927,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6869,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6880,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6891,10 +6960,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6902,10 +6971,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6913,10 +6982,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6924,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6935,10 +7004,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6946,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6957,10 +7026,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6968,10 +7037,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6979,10 +7048,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6990,10 +7059,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7001,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7012,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7023,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7034,10 +7103,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7045,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7056,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -7067,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -7078,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7089,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7100,10 +7169,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7111,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7122,10 +7191,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7133,10 +7202,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>260</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7144,10 +7213,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7155,10 +7224,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7166,10 +7235,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7177,10 +7246,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7188,10 +7257,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7199,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7210,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7221,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7232,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7243,10 +7312,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7254,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -7265,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -7276,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -7287,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -7298,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -7309,10 +7378,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7320,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -7331,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -7342,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -7353,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -7364,7 +7433,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -7375,7 +7444,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -7386,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -7397,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -7408,7 +7477,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -7419,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -7430,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -7441,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -7452,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -7463,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -7474,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7485,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7496,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7507,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7518,7 +7587,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7529,7 +7598,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7540,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7551,7 +7620,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7562,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7573,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7584,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7595,7 +7664,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7606,7 +7675,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7617,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7628,7 +7697,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7639,7 +7708,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7650,7 +7719,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7661,7 +7730,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7672,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7683,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7694,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7705,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7716,7 +7785,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7727,7 +7796,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7738,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7749,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7760,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7771,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7782,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7793,7 +7862,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7804,7 +7873,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7815,7 +7884,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -7826,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7837,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -7848,7 +7917,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -7859,7 +7928,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -7870,7 +7939,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -7881,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -7892,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -7903,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7914,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7925,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7936,7 +8005,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7947,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7958,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7969,7 +8038,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7980,7 +8049,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7991,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8002,7 +8071,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8013,7 +8082,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -8024,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -8035,7 +8104,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -8046,7 +8115,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -8057,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -8068,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -8079,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -8090,7 +8159,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -8101,7 +8170,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -8112,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -8123,7 +8192,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -8158,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8169,10 +8238,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8180,10 +8249,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8191,10 +8260,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8202,10 +8271,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8213,10 +8282,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8224,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8235,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -8246,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -8257,10 +8326,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8268,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8279,10 +8348,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8290,10 +8359,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8301,10 +8370,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8312,10 +8381,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>462</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8323,10 +8392,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8334,10 +8403,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8345,10 +8414,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8356,10 +8425,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>464</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8367,10 +8436,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8378,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8389,10 +8458,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8400,10 +8469,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>258</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8411,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8422,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8433,10 +8502,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8444,10 +8513,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8455,10 +8524,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>467</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8466,10 +8535,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8477,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8488,10 +8557,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8499,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>451</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8510,10 +8579,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>469</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8521,10 +8590,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8532,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>470</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8543,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8554,10 +8623,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8565,10 +8634,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>473</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8576,10 +8645,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8587,10 +8656,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8598,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8609,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>477</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8620,10 +8689,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>478</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8631,10 +8700,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8642,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8653,10 +8722,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8664,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>482</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -8675,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>483</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -8686,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -8697,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -8708,7 +8777,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -8719,10 +8788,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>486</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8730,7 +8799,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -8741,7 +8810,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -8752,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -8763,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>489</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -8774,10 +8843,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8785,10 +8854,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8796,10 +8865,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8807,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -8818,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -8829,7 +8898,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -8840,7 +8909,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -8851,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -8862,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -8873,7 +8942,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -8884,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -8895,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -8906,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -8917,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -8928,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -8939,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -8950,7 +9019,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -8961,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -8972,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -8983,7 +9052,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -8994,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -9005,7 +9074,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -9016,7 +9085,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -9027,7 +9096,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -9038,7 +9107,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -9049,7 +9118,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -9060,7 +9129,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -9071,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -9082,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -9093,7 +9162,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -9104,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -9115,7 +9184,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -9126,7 +9195,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -9137,7 +9206,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -9148,7 +9217,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -9159,7 +9228,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -9170,7 +9239,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -9181,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -9192,7 +9261,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -9203,7 +9272,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -9214,7 +9283,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -9225,7 +9294,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -9236,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -9247,7 +9316,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9258,7 +9327,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9269,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9280,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -9291,7 +9360,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -9302,7 +9371,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9313,7 +9382,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9324,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9335,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9346,7 +9415,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9357,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9368,7 +9437,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -9379,7 +9448,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -9390,7 +9459,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -9401,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -9412,7 +9481,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9423,7 +9492,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9434,7 +9503,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9445,7 +9514,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9456,7 +9525,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9467,7 +9536,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9478,7 +9547,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9489,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9500,7 +9569,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9511,7 +9580,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9522,7 +9591,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9533,7 +9602,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9544,7 +9613,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9555,7 +9624,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9566,7 +9635,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9577,7 +9646,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9612,10 +9681,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9623,10 +9692,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9634,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9645,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -9656,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -9667,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -9678,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -9689,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9700,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -9711,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -9722,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>464</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -9733,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>369</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -9744,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9755,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -9766,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -9777,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>566</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -9788,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -9799,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -9810,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -9821,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9832,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9843,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9854,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>570</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9865,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9876,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9887,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9898,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9909,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9920,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>575</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9931,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9942,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>553</v>
+        <v>260</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9953,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>554</v>
+        <v>138</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9964,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>577</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9975,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>578</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9986,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>579</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9997,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -10008,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -10019,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -10030,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -10041,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -10052,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -10063,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -10074,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -10085,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>563</v>
+        <v>469</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -10096,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -10107,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -10118,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -10129,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -10140,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -10151,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10162,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -10173,7 +10242,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -10195,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -10206,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -10217,7 +10286,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -10228,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -10239,7 +10308,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -10250,7 +10319,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -10261,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -10272,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -10283,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -10294,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -10305,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -10316,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -10327,7 +10396,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -10338,7 +10407,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -10349,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -10360,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -10371,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -10382,7 +10451,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -10393,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -10404,7 +10473,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -10415,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -10426,7 +10495,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -10437,7 +10506,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10448,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -10459,7 +10528,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10470,7 +10539,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10481,7 +10550,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10492,7 +10561,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -10503,7 +10572,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -10514,7 +10583,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -10525,7 +10594,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -10536,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -10547,7 +10616,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -10558,7 +10627,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10569,7 +10638,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -10580,7 +10649,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -10591,7 +10660,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -10602,7 +10671,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -10613,7 +10682,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -10624,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -10635,7 +10704,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -10646,7 +10715,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -10657,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -10668,7 +10737,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -10679,7 +10748,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -10690,7 +10759,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -10701,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -10712,7 +10781,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -10723,7 +10792,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -10734,7 +10803,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -10745,7 +10814,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -10756,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -10767,7 +10836,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -10778,7 +10847,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -10789,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -10800,7 +10869,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -10811,7 +10880,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -10822,7 +10891,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -10833,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -10844,7 +10913,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -10855,7 +10924,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -10866,7 +10935,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -10877,7 +10946,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -10888,7 +10957,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -10899,7 +10968,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -10910,7 +10979,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -10921,7 +10990,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -10932,7 +11001,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -10943,7 +11012,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -10954,7 +11023,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -10965,7 +11034,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -10976,7 +11045,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -10987,7 +11056,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10998,7 +11067,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -11009,7 +11078,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -11020,7 +11089,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -11031,7 +11100,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="C131">
         <v>1</v>

--- a/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams_headlines.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="668">
   <si>
     <t>n</t>
   </si>
@@ -87,9 +87,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>world</t>
   </si>
   <si>
@@ -180,18 +177,12 @@
     <t>story</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>new deal</t>
   </si>
   <si>
-    <t>we need</t>
-  </si>
-  <si>
-    <t>the border</t>
-  </si>
-  <si>
-    <t>our oceans</t>
-  </si>
-  <si>
     <t>need blue</t>
   </si>
   <si>
@@ -201,46 +192,52 @@
     <t>blue new</t>
   </si>
   <si>
-    <t>your name</t>
-  </si>
-  <si>
-    <t>you agree</t>
-  </si>
-  <si>
     <t>york times</t>
   </si>
   <si>
-    <t>years in</t>
-  </si>
-  <si>
-    <t>would say</t>
-  </si>
-  <si>
-    <t>woman to</t>
-  </si>
-  <si>
-    <t>with treason</t>
-  </si>
-  <si>
-    <t>wisconsin they</t>
+    <t>years prison</t>
+  </si>
+  <si>
+    <t>woman accuse</t>
+  </si>
+  <si>
+    <t>wisconsin lost</t>
   </si>
   <si>
     <t>wireless devices</t>
   </si>
   <si>
-    <t>who wants</t>
-  </si>
-  <si>
-    <t>who broke</t>
-  </si>
-  <si>
-    <t>whistleblowers into</t>
-  </si>
-  <si>
-    <t>while real</t>
-  </si>
-  <si>
-    <t>we need blue</t>
+    <t>whistleblowers heroes</t>
+  </si>
+  <si>
+    <t>warn emf</t>
+  </si>
+  <si>
+    <t>wants donald</t>
+  </si>
+  <si>
+    <t>wants ban</t>
+  </si>
+  <si>
+    <t>vow remove</t>
+  </si>
+  <si>
+    <t>virginia outlaw</t>
+  </si>
+  <si>
+    <t>violence epidemic</t>
+  </si>
+  <si>
+    <t>veterans speak</t>
+  </si>
+  <si>
+    <t>unprecedented opportunity</t>
+  </si>
+  <si>
+    <t>ukrainian party</t>
+  </si>
+  <si>
+    <t>ukraine female</t>
   </si>
   <si>
     <t>need blue new</t>
@@ -249,175 +246,178 @@
     <t>blue new deal</t>
   </si>
   <si>
-    <t>your name if</t>
-  </si>
-  <si>
-    <t>you to anyone</t>
-  </si>
-  <si>
-    <t>you agree we</t>
-  </si>
-  <si>
     <t>york times affirms</t>
   </si>
   <si>
-    <t>years in prison</t>
-  </si>
-  <si>
-    <t>would say ck</t>
-  </si>
-  <si>
-    <t>woman to accuse</t>
-  </si>
-  <si>
-    <t>with the overwhelming</t>
-  </si>
-  <si>
-    <t>wisconsin they ve</t>
-  </si>
-  <si>
-    <t>wireless devices such</t>
-  </si>
-  <si>
-    <t>who wants donald</t>
-  </si>
-  <si>
-    <t>who broke story</t>
-  </si>
-  <si>
-    <t>whistleblowers into heroes</t>
-  </si>
-  <si>
-    <t>while real ones</t>
-  </si>
-  <si>
-    <t>was actually facing</t>
-  </si>
-  <si>
-    <t>warn emf from</t>
-  </si>
-  <si>
-    <t>wants to ban</t>
-  </si>
-  <si>
-    <t>we need blue new</t>
+    <t>years prison deportation</t>
+  </si>
+  <si>
+    <t>woman accuse trump</t>
+  </si>
+  <si>
+    <t>wisconsin lost year</t>
+  </si>
+  <si>
+    <t>wireless devices apple</t>
+  </si>
+  <si>
+    <t>whistleblowers heroes real</t>
+  </si>
+  <si>
+    <t>warn emf wireless</t>
+  </si>
+  <si>
+    <t>wants donald trump</t>
+  </si>
+  <si>
+    <t>wants ban 9mm</t>
+  </si>
+  <si>
+    <t>vow remove senior</t>
+  </si>
+  <si>
+    <t>virginia outlaw krav</t>
+  </si>
+  <si>
+    <t>veterans speak gov</t>
+  </si>
+  <si>
+    <t>unprecedented opportunity key</t>
+  </si>
+  <si>
+    <t>ukrainian party girl</t>
+  </si>
+  <si>
+    <t>ukraine female ukrainian</t>
+  </si>
+  <si>
+    <t>tyranny alert virginia</t>
+  </si>
+  <si>
+    <t>turns fake whistleblowers</t>
+  </si>
+  <si>
+    <t>trump sexual attack</t>
   </si>
   <si>
     <t>need blue new deal</t>
   </si>
   <si>
-    <t>your name if you</t>
-  </si>
-  <si>
-    <t>you to anyone who</t>
-  </si>
-  <si>
-    <t>you agree we need</t>
-  </si>
-  <si>
     <t>york times affirms soros</t>
   </si>
   <si>
-    <t>years in prison or</t>
-  </si>
-  <si>
-    <t>would say ck you</t>
-  </si>
-  <si>
-    <t>woman to accuse trump</t>
-  </si>
-  <si>
-    <t>with the overwhelming influx</t>
-  </si>
-  <si>
-    <t>wisconsin they ve lost</t>
-  </si>
-  <si>
-    <t>wireless devices such as</t>
-  </si>
-  <si>
-    <t>why isn the border</t>
-  </si>
-  <si>
-    <t>why does this continue</t>
-  </si>
-  <si>
-    <t>who wants donald trump</t>
-  </si>
-  <si>
-    <t>who broke story of</t>
-  </si>
-  <si>
-    <t>whistleblowers into heroes while</t>
-  </si>
-  <si>
-    <t>while real ones get</t>
-  </si>
-  <si>
-    <t>was actually facing an</t>
-  </si>
-  <si>
-    <t>warn emf from wireless</t>
-  </si>
-  <si>
-    <t>we need blue new deal</t>
-  </si>
-  <si>
-    <t>your name if you agree</t>
-  </si>
-  <si>
-    <t>you to anyone who wants</t>
-  </si>
-  <si>
-    <t>you agree we need blue</t>
+    <t>woman accuse trump sexual</t>
+  </si>
+  <si>
+    <t>wireless devices apple airpods</t>
+  </si>
+  <si>
+    <t>whistleblowers heroes real ones</t>
+  </si>
+  <si>
+    <t>warn emf wireless devices</t>
+  </si>
+  <si>
+    <t>wants ban 9mm pistols</t>
+  </si>
+  <si>
+    <t>vow remove senior entitlements</t>
+  </si>
+  <si>
+    <t>virginia outlaw krav maga</t>
+  </si>
+  <si>
+    <t>veterans speak gov evers</t>
+  </si>
+  <si>
+    <t>unprecedented opportunity key part</t>
+  </si>
+  <si>
+    <t>ukrainian party girl connected</t>
+  </si>
+  <si>
+    <t>ukraine female ukrainian party</t>
+  </si>
+  <si>
+    <t>tyranny alert virginia outlaw</t>
+  </si>
+  <si>
+    <t>turns fake whistleblowers heroes</t>
+  </si>
+  <si>
+    <t>trump promised bring jobs</t>
+  </si>
+  <si>
+    <t>training proposed law sb64</t>
+  </si>
+  <si>
+    <t>tom selleck say ck</t>
+  </si>
+  <si>
+    <t>toast latest report david</t>
+  </si>
+  <si>
+    <t>tj donovan taxpayers deserve</t>
   </si>
   <si>
     <t>york times affirms soros clinton</t>
   </si>
   <si>
-    <t>years in prison or deportation</t>
-  </si>
-  <si>
-    <t>would say ck you to</t>
-  </si>
-  <si>
-    <t>woman to accuse trump of</t>
-  </si>
-  <si>
-    <t>with the overwhelming influx of</t>
-  </si>
-  <si>
-    <t>wisconsin they ve lost the</t>
-  </si>
-  <si>
-    <t>wireless devices such as apple</t>
-  </si>
-  <si>
-    <t>why isn the border shut</t>
-  </si>
-  <si>
-    <t>why does this continue to</t>
-  </si>
-  <si>
-    <t>who wants donald trump to</t>
-  </si>
-  <si>
-    <t>who broke story of mueller</t>
-  </si>
-  <si>
-    <t>whistleblowers into heroes while real</t>
-  </si>
-  <si>
-    <t>while real ones get punished</t>
-  </si>
-  <si>
-    <t>was actually facing an empty</t>
-  </si>
-  <si>
-    <t>warn emf from wireless devices</t>
-  </si>
-  <si>
-    <t>wants to ban 9mm pistols</t>
+    <t>woman accuse trump sexual attack</t>
+  </si>
+  <si>
+    <t>wireless devices apple airpods poses</t>
+  </si>
+  <si>
+    <t>whistleblowers heroes real ones punished</t>
+  </si>
+  <si>
+    <t>warn emf wireless devices apple</t>
+  </si>
+  <si>
+    <t>vow remove senior entitlements social</t>
+  </si>
+  <si>
+    <t>virginia outlaw krav maga brazilian</t>
+  </si>
+  <si>
+    <t>veterans speak gov evers budget</t>
+  </si>
+  <si>
+    <t>unprecedented opportunity key part fight</t>
+  </si>
+  <si>
+    <t>ukrainian party girl connected military</t>
+  </si>
+  <si>
+    <t>ukraine female ukrainian party girl</t>
+  </si>
+  <si>
+    <t>tyranny alert virginia outlaw krav</t>
+  </si>
+  <si>
+    <t>turns fake whistleblowers heroes real</t>
+  </si>
+  <si>
+    <t>trump promised bring jobs back</t>
+  </si>
+  <si>
+    <t>tom selleck say ck anyone</t>
+  </si>
+  <si>
+    <t>toast latest report david steinberg</t>
+  </si>
+  <si>
+    <t>tj donovan taxpayers deserve say</t>
+  </si>
+  <si>
+    <t>times affirms soros clinton paid</t>
+  </si>
+  <si>
+    <t>texas school district mandates teaching</t>
+  </si>
+  <si>
+    <t>taxpayers deserve say public records</t>
   </si>
   <si>
     <t>coronavirus</t>
@@ -426,9 +426,6 @@
     <t>covid</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>may</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>pelosi</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>votes</t>
   </si>
   <si>
@@ -474,15 +468,9 @@
     <t>election</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>breaking</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>voters</t>
   </si>
   <si>
@@ -495,9 +483,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>obama</t>
   </si>
   <si>
@@ -549,6 +534,21 @@
     <t>riots</t>
   </si>
   <si>
+    <t>releases</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
     <t>covid 19</t>
   </si>
   <si>
@@ -561,43 +561,16 @@
     <t>bill gates</t>
   </si>
   <si>
-    <t>the coronavirus</t>
+    <t>trump supporters</t>
   </si>
   <si>
     <t>tests positive</t>
   </si>
   <si>
-    <t>positive for</t>
-  </si>
-  <si>
-    <t>may have</t>
-  </si>
-  <si>
-    <t>could be</t>
-  </si>
-  <si>
-    <t>votes than</t>
-  </si>
-  <si>
-    <t>vote in</t>
-  </si>
-  <si>
-    <t>trying to</t>
-  </si>
-  <si>
-    <t>trump supporters</t>
-  </si>
-  <si>
-    <t>trump and</t>
-  </si>
-  <si>
-    <t>to vote</t>
-  </si>
-  <si>
-    <t>to include</t>
-  </si>
-  <si>
-    <t>to create</t>
+    <t>whitmer emergency</t>
+  </si>
+  <si>
+    <t>trying include</t>
   </si>
   <si>
     <t>test rate</t>
@@ -606,52 +579,58 @@
     <t>swing state</t>
   </si>
   <si>
-    <t>tests positive for</t>
-  </si>
-  <si>
-    <t>trying to include</t>
-  </si>
-  <si>
-    <t>to vote in</t>
-  </si>
-  <si>
-    <t>to include abortion</t>
+    <t>shows biden</t>
+  </si>
+  <si>
+    <t>positive test</t>
+  </si>
+  <si>
+    <t>positive coronavirus</t>
+  </si>
+  <si>
+    <t>pelosi caught</t>
+  </si>
+  <si>
+    <t>mitt romney</t>
+  </si>
+  <si>
+    <t>michigan governor</t>
+  </si>
+  <si>
+    <t>may stop</t>
+  </si>
+  <si>
+    <t>may broken</t>
+  </si>
+  <si>
+    <t>mail ballots</t>
+  </si>
+  <si>
+    <t>whitmer emergency powers</t>
+  </si>
+  <si>
+    <t>trying include abortion</t>
+  </si>
+  <si>
+    <t>tests positive coronavirus</t>
   </si>
   <si>
     <t>positive test rate</t>
   </si>
   <si>
-    <t>positive for coronavirus</t>
+    <t>pelosi caught trying</t>
   </si>
   <si>
     <t>nancy pelosi caught</t>
   </si>
   <si>
-    <t>may have broken</t>
-  </si>
-  <si>
-    <t>mail in ballots</t>
-  </si>
-  <si>
     <t>include abortion funding</t>
   </si>
   <si>
-    <t>for covid 19</t>
-  </si>
-  <si>
     <t>covid 19 vaccine</t>
   </si>
   <si>
-    <t>caught on camera</t>
-  </si>
-  <si>
-    <t>abortion funding in</t>
-  </si>
-  <si>
-    <t>you see doctor</t>
-  </si>
-  <si>
-    <t>you re fired</t>
+    <t>caught trying include</t>
   </si>
   <si>
     <t>york times editor</t>
@@ -660,25 +639,43 @@
     <t>yet folks supreme</t>
   </si>
   <si>
-    <t>yells at people</t>
-  </si>
-  <si>
-    <t>would impact 74</t>
-  </si>
-  <si>
-    <t>trying to include abortion</t>
-  </si>
-  <si>
-    <t>to include abortion funding</t>
-  </si>
-  <si>
-    <t>tests positive for coronavirus</t>
-  </si>
-  <si>
-    <t>include abortion funding in</t>
-  </si>
-  <si>
-    <t>you re fired on</t>
+    <t>yells people line</t>
+  </si>
+  <si>
+    <t>worse officials claim</t>
+  </si>
+  <si>
+    <t>world relies rt</t>
+  </si>
+  <si>
+    <t>world military bio</t>
+  </si>
+  <si>
+    <t>worker brags destroying</t>
+  </si>
+  <si>
+    <t>work violate osha</t>
+  </si>
+  <si>
+    <t>withholding food stamps</t>
+  </si>
+  <si>
+    <t>wisdems farmers crushed</t>
+  </si>
+  <si>
+    <t>wisconsin students 35</t>
+  </si>
+  <si>
+    <t>trying include abortion funding</t>
+  </si>
+  <si>
+    <t>pelosi caught trying include</t>
+  </si>
+  <si>
+    <t>nancy pelosi caught trying</t>
+  </si>
+  <si>
+    <t>caught trying include abortion</t>
   </si>
   <si>
     <t>york times editor admits</t>
@@ -687,52 +684,55 @@
     <t>yet folks supreme court</t>
   </si>
   <si>
-    <t>yells at people in</t>
-  </si>
-  <si>
-    <t>would impact 74 000</t>
-  </si>
-  <si>
-    <t>worse than officials claim</t>
-  </si>
-  <si>
-    <t>world relies on rt</t>
-  </si>
-  <si>
-    <t>world is military bio</t>
-  </si>
-  <si>
-    <t>worker brags about destroying</t>
-  </si>
-  <si>
-    <t>work and violate osha</t>
-  </si>
-  <si>
-    <t>won ban fracking video</t>
-  </si>
-  <si>
-    <t>withholding food stamps and</t>
-  </si>
-  <si>
-    <t>with the daily beast</t>
-  </si>
-  <si>
-    <t>with the crisis 10</t>
-  </si>
-  <si>
-    <t>with nuclear missile trump</t>
-  </si>
-  <si>
-    <t>with multiple confirmed patients</t>
-  </si>
-  <si>
-    <t>trying to include abortion funding</t>
-  </si>
-  <si>
-    <t>to include abortion funding in</t>
-  </si>
-  <si>
-    <t>you re fired on the</t>
+    <t>yells people line vote</t>
+  </si>
+  <si>
+    <t>worse officials claim crisis</t>
+  </si>
+  <si>
+    <t>world relies rt pcr</t>
+  </si>
+  <si>
+    <t>world military bio weapon</t>
+  </si>
+  <si>
+    <t>worker brags destroying trump</t>
+  </si>
+  <si>
+    <t>work violate osha oxygen</t>
+  </si>
+  <si>
+    <t>withholding food stamps rent</t>
+  </si>
+  <si>
+    <t>wisdems farmers crushed trump</t>
+  </si>
+  <si>
+    <t>wisconsin students 35 milwaukee</t>
+  </si>
+  <si>
+    <t>wisconsin recount dane county</t>
+  </si>
+  <si>
+    <t>wisconsin exploding positive test</t>
+  </si>
+  <si>
+    <t>whole world relies rt</t>
+  </si>
+  <si>
+    <t>whitmer emergency powers repealed</t>
+  </si>
+  <si>
+    <t>whitmer emergency powers reigned</t>
+  </si>
+  <si>
+    <t>pelosi caught trying include abortion</t>
+  </si>
+  <si>
+    <t>nancy pelosi caught trying include</t>
+  </si>
+  <si>
+    <t>caught trying include abortion funding</t>
   </si>
   <si>
     <t>york times editor admits biden</t>
@@ -741,49 +741,49 @@
     <t>yet folks supreme court shakes</t>
   </si>
   <si>
-    <t>yells at people in line</t>
-  </si>
-  <si>
-    <t>would impact 74 000 wisconsin</t>
-  </si>
-  <si>
-    <t>worse than officials claim with</t>
-  </si>
-  <si>
-    <t>world relies on rt pcr</t>
-  </si>
-  <si>
-    <t>world is military bio weapon</t>
-  </si>
-  <si>
-    <t>worker brags about destroying trump</t>
-  </si>
-  <si>
-    <t>work and violate osha oxygen</t>
-  </si>
-  <si>
-    <t>won ban fracking video shows</t>
-  </si>
-  <si>
-    <t>withholding food stamps and rent</t>
-  </si>
-  <si>
-    <t>with the crisis 10 times</t>
-  </si>
-  <si>
-    <t>with nuclear missile trump and</t>
-  </si>
-  <si>
-    <t>with his guilty vote mitt</t>
-  </si>
-  <si>
-    <t>with heart conditions have one</t>
-  </si>
-  <si>
-    <t>with election software glitch company</t>
-  </si>
-  <si>
-    <t>with democratic congressman sponsor of</t>
+    <t>yells people line vote ohio</t>
+  </si>
+  <si>
+    <t>worse officials claim crisis 10</t>
+  </si>
+  <si>
+    <t>world relies rt pcr diagnose</t>
+  </si>
+  <si>
+    <t>world military bio weapon developed</t>
+  </si>
+  <si>
+    <t>worker brags destroying trump ballots</t>
+  </si>
+  <si>
+    <t>work violate osha oxygen levels</t>
+  </si>
+  <si>
+    <t>withholding food stamps rent assistance</t>
+  </si>
+  <si>
+    <t>wisdems farmers crushed trump failed</t>
+  </si>
+  <si>
+    <t>wisconsin recount dane county photos</t>
+  </si>
+  <si>
+    <t>wisconsin exploding positive test rate</t>
+  </si>
+  <si>
+    <t>whole world relies rt pcr</t>
+  </si>
+  <si>
+    <t>whitmer emergency powers repealed state</t>
+  </si>
+  <si>
+    <t>whitmer emergency powers reigned triggering</t>
+  </si>
+  <si>
+    <t>whitmer bans buying us flags</t>
+  </si>
+  <si>
+    <t>white female bodies garage freezer</t>
   </si>
   <si>
     <t>vaccinated</t>
@@ -822,9 +822,6 @@
     <t>sen</t>
   </si>
   <si>
-    <t>president</t>
-  </si>
-  <si>
     <t>fully</t>
   </si>
   <si>
@@ -840,9 +837,6 @@
     <t>house</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>flu</t>
   </si>
   <si>
@@ -870,6 +864,12 @@
     <t>likely</t>
   </si>
   <si>
+    <t>jab</t>
+  </si>
+  <si>
+    <t>integrity</t>
+  </si>
+  <si>
     <t>sen rick</t>
   </si>
   <si>
@@ -882,15 +882,6 @@
     <t>fully vaccinated</t>
   </si>
   <si>
-    <t>for covid</t>
-  </si>
-  <si>
-    <t>the vaccine</t>
-  </si>
-  <si>
-    <t>of covid</t>
-  </si>
-  <si>
     <t>covid vaccine</t>
   </si>
   <si>
@@ -903,9 +894,6 @@
     <t>navy seals</t>
   </si>
   <si>
-    <t>millions of</t>
-  </si>
-  <si>
     <t>inflation crisis</t>
   </si>
   <si>
@@ -915,193 +903,205 @@
     <t>election integrity</t>
   </si>
   <si>
-    <t>biden is</t>
-  </si>
-  <si>
     <t>absentee ballots</t>
   </si>
   <si>
     <t>19 vaccines</t>
   </si>
   <si>
+    <t>19 deaths</t>
+  </si>
+  <si>
+    <t>women lose</t>
+  </si>
+  <si>
+    <t>white house</t>
+  </si>
+  <si>
+    <t>voting machines</t>
+  </si>
+  <si>
+    <t>video shows</t>
+  </si>
+  <si>
     <t>sen rick scott</t>
   </si>
   <si>
-    <t>of covid 19</t>
-  </si>
-  <si>
     <t>covid 19 vaccines</t>
   </si>
   <si>
     <t>covid 19 deaths</t>
   </si>
   <si>
-    <t>were fully vaccinated</t>
-  </si>
-  <si>
-    <t>twice as many</t>
-  </si>
-  <si>
-    <t>the fully vaccinated</t>
+    <t>women lose unborn</t>
   </si>
   <si>
     <t>raising debt limit</t>
   </si>
   <si>
-    <t>of unvaccinated people</t>
-  </si>
-  <si>
-    <t>of millions of</t>
-  </si>
-  <si>
-    <t>of absentee ballots</t>
-  </si>
-  <si>
-    <t>margin of victory</t>
-  </si>
-  <si>
-    <t>lose their unborn</t>
-  </si>
-  <si>
-    <t>is national imperative</t>
-  </si>
-  <si>
-    <t>integrity is national</t>
-  </si>
-  <si>
-    <t>have died from</t>
+    <t>integrity national imperative</t>
   </si>
   <si>
     <t>guillain barre syndrome</t>
   </si>
   <si>
-    <t>from the vaccine</t>
-  </si>
-  <si>
-    <t>election integrity is</t>
-  </si>
-  <si>
-    <t>data from the</t>
-  </si>
-  <si>
-    <t>of covid 19 deaths</t>
-  </si>
-  <si>
-    <t>integrity is national imperative</t>
-  </si>
-  <si>
-    <t>election integrity is national</t>
-  </si>
-  <si>
-    <t>covid 19 deaths are</t>
-  </si>
-  <si>
-    <t>all covid 19 vaccines</t>
+    <t>election integrity national</t>
+  </si>
+  <si>
+    <t>black lives matter</t>
+  </si>
+  <si>
+    <t>biden inflation crisis</t>
+  </si>
+  <si>
+    <t>zeneca manufacture covid</t>
+  </si>
+  <si>
+    <t>zealand okays euthanasia</t>
+  </si>
+  <si>
+    <t>york times best</t>
+  </si>
+  <si>
+    <t>year old boy</t>
+  </si>
+  <si>
+    <t>year check 60</t>
+  </si>
+  <si>
+    <t>yale study vaccinated</t>
+  </si>
+  <si>
+    <t>wuhan lab david</t>
+  </si>
+  <si>
+    <t>wrong climate change</t>
+  </si>
+  <si>
+    <t>worst ever covid</t>
+  </si>
+  <si>
+    <t>worried covid cases</t>
+  </si>
+  <si>
+    <t>election integrity national imperative</t>
   </si>
   <si>
     <t>zeneca manufacture covid 19</t>
   </si>
   <si>
-    <t>zealand okays euthanasia for</t>
-  </si>
-  <si>
-    <t>your death by assisted</t>
-  </si>
-  <si>
-    <t>you must be fully</t>
-  </si>
-  <si>
-    <t>you do not need</t>
-  </si>
-  <si>
-    <t>you can check in</t>
+    <t>zealand okays euthanasia covid</t>
   </si>
   <si>
     <t>york times best selling</t>
   </si>
   <si>
-    <t>year you can check</t>
-  </si>
-  <si>
     <t>year old boy passes</t>
   </si>
   <si>
+    <t>year check 60 seconds</t>
+  </si>
+  <si>
     <t>yale study vaccinated people</t>
   </si>
   <si>
     <t>wuhan lab david asher</t>
   </si>
   <si>
-    <t>wrong climate change is</t>
-  </si>
-  <si>
-    <t>would not allow citizens</t>
+    <t>wrong climate change grossly</t>
   </si>
   <si>
     <t>worst ever covid 19</t>
   </si>
   <si>
-    <t>worried covid cases in</t>
-  </si>
-  <si>
-    <t>election integrity is national imperative</t>
+    <t>worried covid cases india</t>
+  </si>
+  <si>
+    <t>world solar wind capital</t>
+  </si>
+  <si>
+    <t>world health organization wants</t>
+  </si>
+  <si>
+    <t>women sports transgender entitled</t>
+  </si>
+  <si>
+    <t>women lose unborn child</t>
+  </si>
+  <si>
+    <t>women lose unborn babies</t>
+  </si>
+  <si>
+    <t>women aged 18 50</t>
+  </si>
+  <si>
+    <t>without jab full details</t>
+  </si>
+  <si>
+    <t>withdraws use pcr test</t>
+  </si>
+  <si>
+    <t>withdrawal covid 19 vaccines</t>
   </si>
   <si>
     <t>zeneca manufacture covid 19 vaccine</t>
   </si>
   <si>
-    <t>zealand okays euthanasia for covid</t>
-  </si>
-  <si>
-    <t>your death by assisted suicide</t>
-  </si>
-  <si>
-    <t>you must be fully vaxxed</t>
-  </si>
-  <si>
-    <t>you do not need to</t>
-  </si>
-  <si>
-    <t>you can check in 60</t>
+    <t>zealand okays euthanasia covid patients</t>
   </si>
   <si>
     <t>york times best selling author</t>
   </si>
   <si>
-    <t>year you can check in</t>
-  </si>
-  <si>
     <t>year old boy passes away</t>
   </si>
   <si>
-    <t>yale study vaccinated people more</t>
+    <t>year check 60 seconds qualify</t>
+  </si>
+  <si>
+    <t>yale study vaccinated people likely</t>
   </si>
   <si>
     <t>wuhan lab david asher says</t>
   </si>
   <si>
-    <t>wrong climate change is grossly</t>
-  </si>
-  <si>
-    <t>would not allow citizens to</t>
+    <t>wrong climate change grossly overemphasized</t>
   </si>
   <si>
     <t>worst ever covid 19 variant</t>
   </si>
   <si>
-    <t>worried covid cases in india</t>
-  </si>
-  <si>
-    <t>world solar and wind capital</t>
-  </si>
-  <si>
-    <t>world health organization wants to</t>
-  </si>
-  <si>
-    <t>won two thirds of election</t>
-  </si>
-  <si>
-    <t>won fuel inflation crisis by</t>
+    <t>worried covid cases india plummet</t>
+  </si>
+  <si>
+    <t>world solar wind capital freezing</t>
+  </si>
+  <si>
+    <t>world health organization wants ban</t>
+  </si>
+  <si>
+    <t>women sports transgender entitled rights</t>
+  </si>
+  <si>
+    <t>women lose unborn child covid</t>
+  </si>
+  <si>
+    <t>women lose unborn babies getting</t>
+  </si>
+  <si>
+    <t>women aged 18 50 drinking</t>
+  </si>
+  <si>
+    <t>withdraws use pcr test covid</t>
+  </si>
+  <si>
+    <t>withdrawal covid 19 vaccines vaccines</t>
+  </si>
+  <si>
+    <t>wisconsin miraculous vanishing ballot rejection</t>
+  </si>
+  <si>
+    <t>wisconsin legislature announces resolution introduced</t>
   </si>
   <si>
     <t>space</t>
@@ -1131,9 +1131,6 @@
     <t>man</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>found</t>
   </si>
   <si>
@@ -1173,85 +1170,70 @@
     <t>suddenly</t>
   </si>
   <si>
-    <t>in ukraine</t>
-  </si>
-  <si>
-    <t>the covid</t>
+    <t>stolen</t>
   </si>
   <si>
     <t>19 vaccine</t>
   </si>
   <si>
-    <t>whilst you</t>
-  </si>
-  <si>
-    <t>vaccinated are</t>
+    <t>whilst distracted</t>
+  </si>
+  <si>
+    <t>vaccinated developing</t>
   </si>
   <si>
     <t>united states</t>
   </si>
   <si>
-    <t>the sun</t>
-  </si>
-  <si>
     <t>russia ukraine</t>
   </si>
   <si>
-    <t>research into</t>
-  </si>
-  <si>
     <t>peer reviewed</t>
   </si>
   <si>
-    <t>of america</t>
-  </si>
-  <si>
-    <t>man in</t>
-  </si>
-  <si>
-    <t>in space</t>
-  </si>
-  <si>
-    <t>in 2021</t>
-  </si>
-  <si>
     <t>first man</t>
   </si>
   <si>
-    <t>distracted by</t>
-  </si>
-  <si>
     <t>covid vaccines</t>
   </si>
   <si>
-    <t>vaccinated are developing</t>
-  </si>
-  <si>
-    <t>yuri gagarin the</t>
-  </si>
-  <si>
-    <t>your government quietly</t>
+    <t>yuri gagarin</t>
+  </si>
+  <si>
+    <t>youngkin incompetence</t>
+  </si>
+  <si>
+    <t>york wetlands</t>
+  </si>
+  <si>
+    <t>years old</t>
+  </si>
+  <si>
+    <t>worried russia</t>
+  </si>
+  <si>
+    <t>worldwide data</t>
+  </si>
+  <si>
+    <t>works regular</t>
+  </si>
+  <si>
+    <t>working across</t>
+  </si>
+  <si>
+    <t>yuri gagarin first</t>
   </si>
   <si>
     <t>youngkin incompetence continues</t>
   </si>
   <si>
-    <t>you worried about</t>
-  </si>
-  <si>
-    <t>you were distracted</t>
-  </si>
-  <si>
-    <t>you swallow it</t>
-  </si>
-  <si>
-    <t>york wetlands with</t>
-  </si>
-  <si>
-    <t>worried about russia</t>
-  </si>
-  <si>
-    <t>worldwide data has</t>
+    <t>york wetlands stroke</t>
+  </si>
+  <si>
+    <t>worried russia ukraine</t>
+  </si>
+  <si>
+    <t>worldwide data confirmed</t>
   </si>
   <si>
     <t>works regular use</t>
@@ -1260,145 +1242,160 @@
     <t>working across america</t>
   </si>
   <si>
-    <t>with ukraine capitulation</t>
-  </si>
-  <si>
-    <t>with treason seditious</t>
-  </si>
-  <si>
-    <t>with the stroke</t>
-  </si>
-  <si>
-    <t>with significantly reduced</t>
-  </si>
-  <si>
-    <t>with population under</t>
-  </si>
-  <si>
-    <t>with pcr test</t>
-  </si>
-  <si>
-    <t>with new economic</t>
-  </si>
-  <si>
-    <t>yuri gagarin the first</t>
-  </si>
-  <si>
-    <t>your government quietly confirmed</t>
-  </si>
-  <si>
-    <t>youngkin incompetence continues to</t>
-  </si>
-  <si>
-    <t>you worried about russia</t>
-  </si>
-  <si>
-    <t>you were distracted by</t>
-  </si>
-  <si>
-    <t>you ve been distracted</t>
-  </si>
-  <si>
-    <t>you can be vaccinated</t>
-  </si>
-  <si>
-    <t>york wetlands with the</t>
-  </si>
-  <si>
-    <t>worried about russia ukraine</t>
-  </si>
-  <si>
-    <t>worldwide data has confirmed</t>
-  </si>
-  <si>
-    <t>works regular use of</t>
-  </si>
-  <si>
-    <t>working across america it</t>
-  </si>
-  <si>
-    <t>with treason seditious conspiracy</t>
-  </si>
-  <si>
-    <t>with the stroke of</t>
-  </si>
-  <si>
-    <t>with significantly reduced covid</t>
-  </si>
-  <si>
-    <t>with population under 700</t>
-  </si>
-  <si>
-    <t>with pcr test even</t>
-  </si>
-  <si>
-    <t>with new economic system</t>
-  </si>
-  <si>
-    <t>with climate science center</t>
+    <t>wisconsin elementary school</t>
+  </si>
+  <si>
+    <t>wins 100 votes</t>
+  </si>
+  <si>
+    <t>white students persist</t>
+  </si>
+  <si>
+    <t>whistleblower brandy vaughan</t>
+  </si>
+  <si>
+    <t>whistleblower bombshell dod</t>
+  </si>
+  <si>
+    <t>whilst distracted russia</t>
+  </si>
+  <si>
+    <t>whilst distracted battle</t>
+  </si>
+  <si>
+    <t>wetlands stroke pen</t>
+  </si>
+  <si>
+    <t>went fib week</t>
+  </si>
+  <si>
+    <t>week shocked rhythm</t>
+  </si>
+  <si>
+    <t>way legal deadline</t>
+  </si>
+  <si>
+    <t>watt says heart</t>
+  </si>
+  <si>
+    <t>yuri gagarin first man</t>
+  </si>
+  <si>
+    <t>youngkin incompetence continues hurt</t>
+  </si>
+  <si>
+    <t>york wetlands stroke pen</t>
+  </si>
+  <si>
+    <t>worried russia ukraine cost</t>
+  </si>
+  <si>
+    <t>worldwide data confirmed vaccinated</t>
+  </si>
+  <si>
+    <t>works regular use ivermectin</t>
+  </si>
+  <si>
+    <t>working across america 10am</t>
   </si>
   <si>
     <t>wisconsin elementary school students</t>
   </si>
   <si>
-    <t>yuri gagarin the first man</t>
-  </si>
-  <si>
-    <t>your government quietly confirmed the</t>
-  </si>
-  <si>
-    <t>youngkin incompetence continues to hurt</t>
-  </si>
-  <si>
-    <t>you worried about russia ukraine</t>
-  </si>
-  <si>
-    <t>you were distracted by the</t>
-  </si>
-  <si>
-    <t>you ve been distracted by</t>
-  </si>
-  <si>
-    <t>you can do to help</t>
-  </si>
-  <si>
-    <t>you can be vaccinated with</t>
-  </si>
-  <si>
-    <t>york wetlands with the stroke</t>
-  </si>
-  <si>
-    <t>worried about russia ukraine the</t>
-  </si>
-  <si>
-    <t>worldwide data has confirmed the</t>
-  </si>
-  <si>
-    <t>works regular use of ivermectin</t>
-  </si>
-  <si>
-    <t>working across america it 10am</t>
-  </si>
-  <si>
-    <t>with the stroke of pen</t>
-  </si>
-  <si>
-    <t>with significantly reduced covid 19</t>
-  </si>
-  <si>
-    <t>with pcr test even without</t>
-  </si>
-  <si>
-    <t>with climate science center propaganda</t>
+    <t>wins 100 votes town</t>
+  </si>
+  <si>
+    <t>whistleblower brandy vaughan found</t>
+  </si>
+  <si>
+    <t>whistleblower bombshell dod medical</t>
+  </si>
+  <si>
+    <t>whilst distracted russia ukraine</t>
+  </si>
+  <si>
+    <t>whilst distracted battle ukraine</t>
+  </si>
+  <si>
+    <t>went fib week shocked</t>
+  </si>
+  <si>
+    <t>way legal deadline detroit</t>
+  </si>
+  <si>
+    <t>watt says heart went</t>
+  </si>
+  <si>
+    <t>warrants valid proof id</t>
+  </si>
+  <si>
+    <t>want replace capitalism new</t>
+  </si>
+  <si>
+    <t>vows crush child traffickers</t>
+  </si>
+  <si>
+    <t>vow slaughter million dogs</t>
+  </si>
+  <si>
+    <t>yuri gagarin first man ever</t>
+  </si>
+  <si>
+    <t>youngkin incompetence continues hurt commonwealt</t>
+  </si>
+  <si>
+    <t>worried russia ukraine cost living</t>
+  </si>
+  <si>
+    <t>worldwide data confirmed vaccinated developing</t>
+  </si>
+  <si>
+    <t>works regular use ivermectin prophylactic</t>
+  </si>
+  <si>
+    <t>working across america 10am est</t>
   </si>
   <si>
     <t>wisconsin elementary school students buck</t>
   </si>
   <si>
-    <t>wins 100 votes from town</t>
-  </si>
-  <si>
-    <t>will have microchip that transmits</t>
+    <t>wins 100 votes town population</t>
+  </si>
+  <si>
+    <t>whistleblower brandy vaughan found dead</t>
+  </si>
+  <si>
+    <t>whistleblower bombshell dod medical data</t>
+  </si>
+  <si>
+    <t>whilst distracted russia ukraine worldwide</t>
+  </si>
+  <si>
+    <t>whilst distracted battle ukraine documents</t>
+  </si>
+  <si>
+    <t>went fib week shocked rhythm</t>
+  </si>
+  <si>
+    <t>way legal deadline detroit michigan</t>
+  </si>
+  <si>
+    <t>watt says heart went fib</t>
+  </si>
+  <si>
+    <t>want replace capitalism new economic</t>
+  </si>
+  <si>
+    <t>vows crush child traffickers ukraine</t>
+  </si>
+  <si>
+    <t>vow slaughter million dogs reduce</t>
+  </si>
+  <si>
+    <t>voting machines stop working across</t>
+  </si>
+  <si>
+    <t>voter fraud 10 find innocent</t>
   </si>
   <si>
     <t>wef</t>
@@ -1479,64 +1476,49 @@
     <t>due</t>
   </si>
   <si>
-    <t>vaccines are</t>
-  </si>
-  <si>
-    <t>must be</t>
+    <t>day</t>
   </si>
   <si>
     <t>klaus schwab</t>
   </si>
   <si>
-    <t>due to</t>
-  </si>
-  <si>
-    <t>your organic</t>
-  </si>
-  <si>
-    <t>years old</t>
-  </si>
-  <si>
     <t>wef calls</t>
   </si>
   <si>
-    <t>want to</t>
-  </si>
-  <si>
     <t>un says</t>
   </si>
   <si>
-    <t>to sex</t>
-  </si>
-  <si>
-    <t>thousands of</t>
-  </si>
-  <si>
-    <t>the faa</t>
-  </si>
-  <si>
     <t>seals save</t>
   </si>
   <si>
-    <t>people who</t>
-  </si>
-  <si>
-    <t>of people</t>
-  </si>
-  <si>
-    <t>of aluminum</t>
-  </si>
-  <si>
-    <t>will be excluded</t>
-  </si>
-  <si>
-    <t>wef calls for</t>
-  </si>
-  <si>
-    <t>the covid vaccines</t>
-  </si>
-  <si>
-    <t>of covid deaths</t>
+    <t>health professionals</t>
+  </si>
+  <si>
+    <t>fema deputy</t>
+  </si>
+  <si>
+    <t>excluded society</t>
+  </si>
+  <si>
+    <t>erik hooks</t>
+  </si>
+  <si>
+    <t>deputy administrator</t>
+  </si>
+  <si>
+    <t>covid shots</t>
+  </si>
+  <si>
+    <t>covid deaths</t>
+  </si>
+  <si>
+    <t>consent sex</t>
+  </si>
+  <si>
+    <t>climate crisis</t>
+  </si>
+  <si>
+    <t>child sex</t>
   </si>
   <si>
     <t>navy seals save</t>
@@ -1545,52 +1527,58 @@
     <t>military arrests fema</t>
   </si>
   <si>
-    <t>levels in the</t>
-  </si>
-  <si>
     <t>fema deputy administrator</t>
   </si>
   <si>
-    <t>excluded from society</t>
-  </si>
-  <si>
     <t>deputy administrator erik</t>
   </si>
   <si>
-    <t>covid vaccines are</t>
-  </si>
-  <si>
-    <t>consent to sex</t>
-  </si>
-  <si>
-    <t>be excluded from</t>
-  </si>
-  <si>
     <t>arrests fema deputy</t>
   </si>
   <si>
     <t>administrator erik hooks</t>
   </si>
   <si>
-    <t>000 americans have</t>
-  </si>
-  <si>
     <t>zero amish children</t>
   </si>
   <si>
-    <t>your skin if</t>
-  </si>
-  <si>
-    <t>your organic produce</t>
-  </si>
-  <si>
-    <t>your organic fruits</t>
-  </si>
-  <si>
-    <t>will be excluded from</t>
-  </si>
-  <si>
-    <t>the covid vaccines are</t>
+    <t>yellen arrested treason</t>
+  </si>
+  <si>
+    <t>years old eat</t>
+  </si>
+  <si>
+    <t>years old 181</t>
+  </si>
+  <si>
+    <t>years despite rise</t>
+  </si>
+  <si>
+    <t>wsj uncovers massive</t>
+  </si>
+  <si>
+    <t>wrong appears glossary</t>
+  </si>
+  <si>
+    <t>worth known risks</t>
+  </si>
+  <si>
+    <t>world prediction today</t>
+  </si>
+  <si>
+    <t>worked 122 years</t>
+  </si>
+  <si>
+    <t>work virtual interactions</t>
+  </si>
+  <si>
+    <t>words health professionals</t>
+  </si>
+  <si>
+    <t>women rights campaigners</t>
+  </si>
+  <si>
+    <t>without proper evidence</t>
   </si>
   <si>
     <t>military arrests fema deputy</t>
@@ -1602,52 +1590,55 @@
     <t>deputy administrator erik hooks</t>
   </si>
   <si>
-    <t>be excluded from society</t>
-  </si>
-  <si>
     <t>arrests fema deputy administrator</t>
   </si>
   <si>
     <t>zero amish children diagnosed</t>
   </si>
   <si>
-    <t>your skin if you</t>
-  </si>
-  <si>
-    <t>your organic produce with</t>
-  </si>
-  <si>
-    <t>your organic fruits and</t>
-  </si>
-  <si>
-    <t>your house biden blueprint</t>
-  </si>
-  <si>
-    <t>you want to participate</t>
-  </si>
-  <si>
-    <t>you like it or</t>
-  </si>
-  <si>
-    <t>yellen arrested for treason</t>
-  </si>
-  <si>
-    <t>years old eat this</t>
-  </si>
-  <si>
-    <t>years old and is</t>
-  </si>
-  <si>
-    <t>years despite rise in</t>
+    <t>years old eat every</t>
+  </si>
+  <si>
+    <t>years old 181 years</t>
+  </si>
+  <si>
+    <t>years despite rise co2</t>
   </si>
   <si>
     <t>wsj uncovers massive pedophile</t>
   </si>
   <si>
-    <t>wrong it appears in</t>
-  </si>
-  <si>
-    <t>will be excluded from society</t>
+    <t>wrong appears glossary words</t>
+  </si>
+  <si>
+    <t>world prediction today june</t>
+  </si>
+  <si>
+    <t>worked 122 years old</t>
+  </si>
+  <si>
+    <t>words health professionals think</t>
+  </si>
+  <si>
+    <t>women rights campaigners say</t>
+  </si>
+  <si>
+    <t>widened ekg parameter range</t>
+  </si>
+  <si>
+    <t>whistle biden bribery scheme</t>
+  </si>
+  <si>
+    <t>wef says cbdcs must</t>
+  </si>
+  <si>
+    <t>wef orders govt begin</t>
+  </si>
+  <si>
+    <t>wef launches mark beast</t>
+  </si>
+  <si>
+    <t>wef infiltrated dutch gov</t>
   </si>
   <si>
     <t>military arrests fema deputy administrator</t>
@@ -1659,52 +1650,55 @@
     <t>arrests fema deputy administrator erik</t>
   </si>
   <si>
-    <t>zero amish children diagnosed with</t>
-  </si>
-  <si>
-    <t>your skin if you want</t>
-  </si>
-  <si>
-    <t>your organic produce with it</t>
-  </si>
-  <si>
-    <t>your organic fruits and veggies</t>
-  </si>
-  <si>
-    <t>your house biden blueprint for</t>
-  </si>
-  <si>
-    <t>you want to participate in</t>
-  </si>
-  <si>
-    <t>you like it or not</t>
-  </si>
-  <si>
-    <t>years old eat this every</t>
-  </si>
-  <si>
-    <t>years old and is 181</t>
-  </si>
-  <si>
-    <t>years despite rise in co2</t>
+    <t>zero amish children diagnosed cancer</t>
+  </si>
+  <si>
+    <t>years old eat every day</t>
+  </si>
+  <si>
+    <t>years old 181 years old</t>
   </si>
   <si>
     <t>wsj uncovers massive pedophile ring</t>
   </si>
   <si>
-    <t>wrong it appears in glossary</t>
-  </si>
-  <si>
-    <t>wouldn be grounded it looks</t>
-  </si>
-  <si>
-    <t>would charge any parent who</t>
-  </si>
-  <si>
-    <t>would be toxic for adults</t>
-  </si>
-  <si>
-    <t>world prediction was for today</t>
+    <t>wrong appears glossary words health</t>
+  </si>
+  <si>
+    <t>world prediction today june 21st</t>
+  </si>
+  <si>
+    <t>worked 122 years old 181</t>
+  </si>
+  <si>
+    <t>words health professionals think using</t>
+  </si>
+  <si>
+    <t>women rights campaigners say term</t>
+  </si>
+  <si>
+    <t>widened ekg parameter range pilots</t>
+  </si>
+  <si>
+    <t>whistle biden bribery scheme found</t>
+  </si>
+  <si>
+    <t>wef says cbdcs must implanted</t>
+  </si>
+  <si>
+    <t>wef orders govt begin rationing</t>
+  </si>
+  <si>
+    <t>wef launches mark beast cbdc</t>
+  </si>
+  <si>
+    <t>wef infiltrated dutch gov begins</t>
+  </si>
+  <si>
+    <t>wef hires unvaccinated pilots fly</t>
+  </si>
+  <si>
+    <t>wef calls covid concentration camps</t>
   </si>
   <si>
     <t>roads</t>
@@ -1725,9 +1719,6 @@
     <t>donald</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -1806,25 +1797,19 @@
     <t>donald trump</t>
   </si>
   <si>
-    <t>bill to</t>
-  </si>
-  <si>
     <t>york city</t>
   </si>
   <si>
     <t>york ag</t>
   </si>
   <si>
-    <t>worth up</t>
+    <t>worth 10</t>
   </si>
   <si>
     <t>world economic</t>
   </si>
   <si>
-    <t>woman not</t>
-  </si>
-  <si>
-    <t>with first</t>
+    <t>woman playing</t>
   </si>
   <si>
     <t>witch hunt</t>
@@ -1839,10 +1824,7 @@
     <t>watch john</t>
   </si>
   <si>
-    <t>was climate</t>
-  </si>
-  <si>
-    <t>votes to</t>
+    <t>votes ban</t>
   </si>
   <si>
     <t>violent threat</t>
@@ -1854,22 +1836,25 @@
     <t>venus williams</t>
   </si>
   <si>
-    <t>york city to</t>
+    <t>vaccines caused</t>
+  </si>
+  <si>
+    <t>vaccine injuries</t>
+  </si>
+  <si>
+    <t>uncovered data</t>
+  </si>
+  <si>
+    <t>york city receive</t>
   </si>
   <si>
     <t>york ag witch</t>
   </si>
   <si>
-    <t>worth up to</t>
-  </si>
-  <si>
     <t>world economic forum</t>
   </si>
   <si>
-    <t>woman not playing</t>
-  </si>
-  <si>
-    <t>with first cousins</t>
+    <t>woman playing man</t>
   </si>
   <si>
     <t>williams forfeits match</t>
@@ -1881,13 +1866,10 @@
     <t>watch john mellencamp</t>
   </si>
   <si>
-    <t>was climate change</t>
-  </si>
-  <si>
-    <t>votes to ban</t>
-  </si>
-  <si>
-    <t>violent threat to</t>
+    <t>votes ban housing</t>
+  </si>
+  <si>
+    <t>violent threat donald</t>
   </si>
   <si>
     <t>vice presidential candidacy</t>
@@ -1902,37 +1884,37 @@
     <t>vaccine injuries exposed</t>
   </si>
   <si>
-    <t>up to 10</t>
-  </si>
-  <si>
-    <t>unacceptable harm to</t>
-  </si>
-  <si>
-    <t>tweets out bullet</t>
-  </si>
-  <si>
-    <t>trump push for</t>
-  </si>
-  <si>
-    <t>york city to receive</t>
+    <t>unacceptable harm reward</t>
+  </si>
+  <si>
+    <t>tweets bullet hole</t>
+  </si>
+  <si>
+    <t>trump stormy daniels</t>
+  </si>
+  <si>
+    <t>trump push national</t>
+  </si>
+  <si>
+    <t>trump crooked joe</t>
+  </si>
+  <si>
+    <t>trudeau claimed climate</t>
+  </si>
+  <si>
+    <t>trans woman playing</t>
+  </si>
+  <si>
+    <t>york city receive debit</t>
   </si>
   <si>
     <t>york ag witch hunt</t>
   </si>
   <si>
-    <t>worth up to 10</t>
-  </si>
-  <si>
     <t>world economic forum founder</t>
   </si>
   <si>
-    <t>woman not playing man</t>
-  </si>
-  <si>
-    <t>with first cousins report</t>
-  </si>
-  <si>
-    <t>williams forfeits match against</t>
+    <t>williams forfeits match trans</t>
   </si>
   <si>
     <t>well documented serious adverse</t>
@@ -1941,13 +1923,10 @@
     <t>watch john mellencamp booed</t>
   </si>
   <si>
-    <t>was climate change brian</t>
-  </si>
-  <si>
-    <t>votes to ban housing</t>
-  </si>
-  <si>
-    <t>violent threat to donald</t>
+    <t>votes ban housing migrants</t>
+  </si>
+  <si>
+    <t>violent threat donald trump</t>
   </si>
   <si>
     <t>venus williams forfeits match</t>
@@ -1956,82 +1935,94 @@
     <t>vaccines caused nearly 14</t>
   </si>
   <si>
-    <t>vaccine injuries exposed in</t>
-  </si>
-  <si>
-    <t>up to 10 000</t>
-  </si>
-  <si>
-    <t>unacceptable harm to reward</t>
-  </si>
-  <si>
-    <t>tweets out bullet hole</t>
-  </si>
-  <si>
-    <t>trump push for national</t>
-  </si>
-  <si>
-    <t>trump on crooked joe</t>
-  </si>
-  <si>
-    <t>york city to receive debit</t>
-  </si>
-  <si>
-    <t>worth up to 10 000</t>
+    <t>vaccine injuries exposed newly</t>
+  </si>
+  <si>
+    <t>unacceptable harm reward ratio</t>
+  </si>
+  <si>
+    <t>tweets bullet hole 47</t>
+  </si>
+  <si>
+    <t>trump stormy daniels case</t>
+  </si>
+  <si>
+    <t>trump push national guard</t>
+  </si>
+  <si>
+    <t>trump crooked joe biden</t>
+  </si>
+  <si>
+    <t>trudeau claimed climate change</t>
+  </si>
+  <si>
+    <t>trans woman playing man</t>
+  </si>
+  <si>
+    <t>times deaths study researchers</t>
+  </si>
+  <si>
+    <t>tillis blackburn introduce bill</t>
+  </si>
+  <si>
+    <t>york city receive debit cards</t>
   </si>
   <si>
     <t>world economic forum founder klaus</t>
   </si>
   <si>
-    <t>williams forfeits match against trans</t>
+    <t>williams forfeits match trans woman</t>
   </si>
   <si>
     <t>well documented serious adverse events</t>
   </si>
   <si>
-    <t>watch john mellencamp booed off</t>
-  </si>
-  <si>
-    <t>was climate change brian paré</t>
-  </si>
-  <si>
-    <t>votes to ban housing migrants</t>
-  </si>
-  <si>
-    <t>violent threat to donald trump</t>
-  </si>
-  <si>
-    <t>venus williams forfeits match against</t>
+    <t>watch john mellencamp booed stage</t>
+  </si>
+  <si>
+    <t>votes ban housing migrants public</t>
+  </si>
+  <si>
+    <t>venus williams forfeits match trans</t>
   </si>
   <si>
     <t>vaccines caused nearly 14 times</t>
   </si>
   <si>
-    <t>vaccine injuries exposed in newly</t>
-  </si>
-  <si>
-    <t>up to 10 000 each</t>
-  </si>
-  <si>
-    <t>unacceptable harm to reward ratio</t>
-  </si>
-  <si>
-    <t>tweets out bullet hole and</t>
-  </si>
-  <si>
-    <t>trump push for national guard</t>
-  </si>
-  <si>
-    <t>trump on crooked joe biden</t>
-  </si>
-  <si>
-    <t>trump in stormy daniels case</t>
-  </si>
-  <si>
-    <t>trudeau claimed it was climate</t>
-  </si>
-  <si>
-    <t>trans woman not playing man</t>
+    <t>vaccine injuries exposed newly uncovered</t>
+  </si>
+  <si>
+    <t>tweets bullet hole 47 direct</t>
+  </si>
+  <si>
+    <t>trump stormy daniels case resurfaces</t>
+  </si>
+  <si>
+    <t>trump crooked joe biden directed</t>
+  </si>
+  <si>
+    <t>trudeau claimed climate change brian</t>
+  </si>
+  <si>
+    <t>times deaths study researchers called</t>
+  </si>
+  <si>
+    <t>tillis blackburn introduce bill make</t>
+  </si>
+  <si>
+    <t>theories online suggesting government deliberately</t>
+  </si>
+  <si>
+    <t>tennessee bans bill gates mrna</t>
+  </si>
+  <si>
+    <t>suppressed exonerating evidence trump push</t>
+  </si>
+  <si>
+    <t>suggesting government deliberately ignited blazes</t>
+  </si>
+  <si>
+    <t>study revealed well documented serious</t>
   </si>
 </sst>
 </file>
@@ -3008,7 +2999,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3019,7 +3010,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3030,7 +3021,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3206,7 +3197,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3415,7 +3406,7 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3624,7 +3615,7 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3912,7 +3903,7 @@
         <v>135</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3934,7 +3925,7 @@
         <v>137</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3942,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3953,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -3964,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3975,10 +3966,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3989,7 +3980,7 @@
         <v>140</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4033,7 +4024,7 @@
         <v>144</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4044,7 +4035,7 @@
         <v>145</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4099,7 +4090,7 @@
         <v>150</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4110,7 +4101,7 @@
         <v>151</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4121,7 +4112,7 @@
         <v>152</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4132,7 +4123,7 @@
         <v>153</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4261,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4272,10 +4263,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4283,10 +4274,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4294,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4305,10 +4296,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4316,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -4327,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -4338,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -4349,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -4360,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -4371,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -4382,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -4393,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4426,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -4495,7 +4486,7 @@
         <v>182</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4506,7 +4497,7 @@
         <v>183</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4517,7 +4508,7 @@
         <v>184</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4638,7 +4629,7 @@
         <v>195</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4737,7 +4728,7 @@
         <v>204</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4748,7 +4739,7 @@
         <v>205</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4759,7 +4750,7 @@
         <v>206</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4770,7 +4761,7 @@
         <v>207</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4781,7 +4772,7 @@
         <v>208</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5100,7 +5091,7 @@
         <v>237</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5341,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -5352,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -5374,10 +5365,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5385,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5396,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -5407,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -5418,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5429,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5440,10 +5431,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5451,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -5462,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -5473,10 +5464,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5484,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -5495,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -5506,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -5517,10 +5508,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5528,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -5539,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -5550,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -5561,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -5572,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -5583,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -5594,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -5605,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -5627,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -5638,10 +5629,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5649,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -5660,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5671,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>145</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5682,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5715,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5726,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5737,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5748,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5759,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5770,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5781,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5814,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -5825,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5836,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5924,10 +5915,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5935,7 +5926,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5946,10 +5937,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5957,10 +5948,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5971,7 +5962,7 @@
         <v>290</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6048,7 +6039,7 @@
         <v>297</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6059,7 +6050,7 @@
         <v>298</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6070,7 +6061,7 @@
         <v>299</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6081,7 +6072,7 @@
         <v>300</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6125,7 +6116,7 @@
         <v>304</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6202,7 +6193,7 @@
         <v>311</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -6213,7 +6204,7 @@
         <v>312</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -6224,7 +6215,7 @@
         <v>313</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -6235,7 +6226,7 @@
         <v>314</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -6246,7 +6237,7 @@
         <v>315</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -6257,7 +6248,7 @@
         <v>316</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -6268,7 +6259,7 @@
         <v>317</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -6279,7 +6270,7 @@
         <v>318</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -6290,7 +6281,7 @@
         <v>319</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -6301,7 +6292,7 @@
         <v>320</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6323,7 +6314,7 @@
         <v>322</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6334,7 +6325,7 @@
         <v>323</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6345,7 +6336,7 @@
         <v>324</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6356,7 +6347,7 @@
         <v>325</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6532,7 +6523,7 @@
         <v>341</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6784,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -6795,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6817,10 +6808,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6828,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6839,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6850,10 +6841,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6861,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>174</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -6872,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -6883,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -6894,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -6905,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -6916,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -6927,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -6938,10 +6929,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6949,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -6960,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -6971,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -6982,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -6993,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>140</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -7004,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -7015,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -7026,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -7037,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -7048,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -7070,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -7081,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -7092,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -7103,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -7114,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -7125,10 +7116,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7136,10 +7127,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7147,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -7158,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -7169,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>376</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -7180,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -7191,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>376</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -7202,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -7213,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>377</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -7235,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -7246,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -7257,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -7268,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -7279,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -7290,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -7301,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -7312,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -7334,10 +7325,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7345,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -7356,10 +7347,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7370,7 +7361,7 @@
         <v>386</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7411,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -7422,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -7433,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -7444,7 +7435,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -7455,10 +7446,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7466,10 +7457,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7477,10 +7468,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7488,10 +7479,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7499,10 +7490,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7510,10 +7501,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7521,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7532,10 +7523,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7543,7 +7534,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7554,10 +7545,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7565,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7576,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7587,7 +7578,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7598,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7609,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7620,7 +7611,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7631,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7642,7 +7633,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7653,7 +7644,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7664,7 +7655,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7675,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7686,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7697,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7708,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7719,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7730,7 +7721,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7741,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7752,7 +7743,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7763,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7774,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7785,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7796,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7807,7 +7798,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7818,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7829,7 +7820,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7840,7 +7831,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7851,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7862,7 +7853,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7873,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7884,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -7895,7 +7886,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7906,7 +7897,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -7917,7 +7908,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -7928,7 +7919,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -7939,7 +7930,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -7950,7 +7941,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -7961,7 +7952,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -7972,7 +7963,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7983,7 +7974,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7994,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8005,7 +7996,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8016,7 +8007,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8027,7 +8018,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8038,7 +8029,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8049,7 +8040,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8060,7 +8051,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8071,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8082,7 +8073,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -8093,7 +8084,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -8104,7 +8095,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -8115,7 +8106,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -8126,7 +8117,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -8137,7 +8128,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -8148,7 +8139,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -8159,7 +8150,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -8170,7 +8161,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -8181,7 +8172,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -8192,7 +8183,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -8238,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -8249,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -8293,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -8315,10 +8306,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8326,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -8337,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -8348,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>460</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -8359,10 +8350,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>151</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8370,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>461</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -8392,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -8403,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -8414,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>463</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -8425,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>369</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -8436,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>464</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -8447,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -8458,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -8469,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -8480,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -8491,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -8502,10 +8493,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8513,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -8524,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>144</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -8535,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -8546,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>467</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -8557,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -8568,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>468</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -8579,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>277</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -8590,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>469</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -8788,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>486</v>
+        <v>285</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -8799,7 +8790,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -8810,10 +8801,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8821,10 +8812,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8832,10 +8823,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8843,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -8854,7 +8845,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>491</v>
+        <v>290</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -8865,7 +8856,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -8876,7 +8867,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -8887,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -8898,7 +8889,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -8909,7 +8900,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -8920,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -8931,7 +8922,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>495</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -8942,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -8953,7 +8944,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>499</v>
+        <v>176</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -8964,7 +8955,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -8975,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>498</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -8986,7 +8977,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -8997,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -9008,7 +8999,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -9019,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -9030,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -9041,7 +9032,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -9052,7 +9043,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -9063,10 +9054,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -9074,10 +9065,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -9085,10 +9076,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -9096,10 +9087,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -9107,10 +9098,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -9118,10 +9109,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -9129,10 +9120,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -9140,10 +9131,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9151,10 +9142,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -9162,10 +9153,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -9173,7 +9164,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -9184,7 +9175,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -9195,7 +9186,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -9206,7 +9197,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -9217,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -9228,7 +9219,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -9239,7 +9230,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -9250,7 +9241,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -9261,10 +9252,10 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9272,10 +9263,10 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9283,10 +9274,10 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9294,7 +9285,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -9305,7 +9296,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -9316,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9327,7 +9318,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9338,7 +9329,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9349,7 +9340,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -9360,7 +9351,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -9371,7 +9362,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9382,7 +9373,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9393,7 +9384,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9404,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9415,7 +9406,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9426,7 +9417,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9437,7 +9428,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -9448,7 +9439,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -9459,7 +9450,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -9470,10 +9461,10 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9481,7 +9472,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9492,7 +9483,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9503,7 +9494,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9514,7 +9505,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9525,7 +9516,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9536,7 +9527,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9547,7 +9538,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9558,7 +9549,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9569,7 +9560,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9580,7 +9571,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9591,7 +9582,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9602,7 +9593,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9613,7 +9604,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9624,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9635,7 +9626,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9646,7 +9637,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9703,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -9725,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -9736,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -9747,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -9769,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -9780,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -9791,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -9813,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9835,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -9846,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -9857,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -9879,10 +9870,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9890,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9912,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>567</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9923,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9934,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9945,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9956,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>573</v>
+        <v>139</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9967,7 +9958,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>571</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9978,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9989,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10000,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>576</v>
+        <v>260</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -10011,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -10022,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>574</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -10033,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -10044,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -10055,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -10066,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -10077,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>581</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -10088,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>579</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -10099,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -10110,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -10121,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -10132,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -10143,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>586</v>
+        <v>468</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -10154,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -10165,7 +10156,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -10176,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -10187,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -10198,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -10209,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -10220,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>592</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10231,7 +10222,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -10242,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -10253,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -10264,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -10275,10 +10266,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10286,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -10297,7 +10288,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -10308,7 +10299,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -10319,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -10330,7 +10321,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -10341,7 +10332,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -10352,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -10363,7 +10354,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -10374,7 +10365,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -10385,7 +10376,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -10396,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -10407,7 +10398,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -10418,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -10429,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -10440,7 +10431,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -10451,7 +10442,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -10462,7 +10453,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -10473,7 +10464,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -10484,7 +10475,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -10495,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -10506,7 +10497,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10517,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -10528,7 +10519,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10539,7 +10530,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10550,7 +10541,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10561,7 +10552,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -10572,7 +10563,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -10583,7 +10574,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -10594,7 +10585,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -10605,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -10616,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -10627,7 +10618,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10638,7 +10629,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -10649,7 +10640,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -10660,7 +10651,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -10671,7 +10662,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -10682,7 +10673,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -10693,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -10704,7 +10695,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -10715,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -10726,7 +10717,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -10737,7 +10728,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -10748,7 +10739,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -10759,7 +10750,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -10770,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -10781,7 +10772,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -10792,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -10803,7 +10794,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -10814,7 +10805,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -10825,7 +10816,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -10836,7 +10827,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -10847,7 +10838,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -10858,7 +10849,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -10869,7 +10860,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -10880,7 +10871,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -10891,7 +10882,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -10902,7 +10893,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -10913,7 +10904,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -10924,7 +10915,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -10935,7 +10926,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -10946,7 +10937,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -10957,7 +10948,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -10968,7 +10959,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -10979,7 +10970,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -10990,7 +10981,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -11001,7 +10992,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -11012,7 +11003,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -11023,7 +11014,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -11034,7 +11025,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -11045,7 +11036,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -11056,7 +11047,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -11067,7 +11058,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -11078,7 +11069,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -11089,7 +11080,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -11100,7 +11091,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C131">
         <v>1</v>
